--- a/biology/Zoologie/Hypolimnas_antilope/Hypolimnas_antilope.xlsx
+++ b/biology/Zoologie/Hypolimnas_antilope/Hypolimnas_antilope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypolimnas antilope est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Nymphalinae et du genre Hypolimnas.
 </t>
@@ -511,11 +523,48 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom d'Hypolimnas antilope a été donné par Pieter Cramer en 1777[1].
-Sous-espèces
-Hypolimnas antilope antilope
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom d'Hypolimnas antilope a été donné par Pieter Cramer en 1777.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hypolimnas_antilope</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_antilope</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypolimnas antilope antilope
 Hypolimnas antilope albomela Howarth ; aux îles Salomon.
 Hypolimnas antilope  maglovius Fruhstorfer ;
 Hypolimnas antilope mela Fruhstorfer, 190 ;) dans le sud-est de la Nouvelle-Guinée et en Papouasie.
@@ -523,38 +572,7 @@
 Hypolimnas antilope scopas Godman et Salvin ; aux îles Salomon.
 Hypolimnas antilope shortlandia Ribb ; aux îles Salomon et en Nouvelle-Calédonie
 Hypolimnas antilope wagneri Clark ;
-En Nouvelle-Calédonie pour certains ce ne serait pas une sous-espèce d' Hypolimnas antilope mais une espèce  Hypolimnas shortlandica et même sa sous-espèce Hypolimnas shortlandica lutescens[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hypolimnas_antilope</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hypolimnas_antilope</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon marron d'une envergure de 7 à 8 cm aux ailes antérieures au bord concave. Les ailes sont ornées d'un ligne marginale de chevrons blancs et d'une ligne de points blancs. Le revers est marron avec la même ornementation[3].
+En Nouvelle-Calédonie pour certains ce ne serait pas une sous-espèce d' Hypolimnas antilope mais une espèce  Hypolimnas shortlandica et même sa sous-espèce Hypolimnas shortlandica lutescens.
 </t>
         </is>
       </c>
@@ -580,13 +598,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont Pipturus argenteus et Pipturus incanicus[1],[3].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon marron d'une envergure de 7 à 8 cm aux ailes antérieures au bord concave. Les ailes sont ornées d'un ligne marginale de chevrons blancs et d'une ligne de points blancs. Le revers est marron avec la même ornementation.
 </t>
         </is>
       </c>
@@ -612,14 +631,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Pipturus argenteus et Pipturus incanicus,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hypolimnas_antilope</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_antilope</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Malaisie, aux Philippines, en Nouvelle-Guinée, en Australie et en Nouvelle-Calédonie à Grande Terre[1],[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Malaisie, aux Philippines, en Nouvelle-Guinée, en Australie et en Nouvelle-Calédonie à Grande Terre,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hypolimnas_antilope</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_antilope</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
